--- a/experiments/pg/return_discount_increment/mlp_3x182_no_max_prefix_no_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/mlp_3x182_no_max_prefix_no_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2465"/>
+  <dimension ref="A1:C2602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32477,6 +32477,1787 @@
         <v>14.10008690974876</v>
       </c>
     </row>
+    <row r="2466">
+      <c r="A2466" s="1" t="n">
+        <v>2464</v>
+      </c>
+      <c r="B2466" t="inlineStr">
+        <is>
+          <t>[6, 7, 1]</t>
+        </is>
+      </c>
+      <c r="C2466" t="n">
+        <v>14.47009555936539</v>
+      </c>
+    </row>
+    <row r="2467">
+      <c r="A2467" s="1" t="n">
+        <v>2465</v>
+      </c>
+      <c r="B2467" t="inlineStr">
+        <is>
+          <t>[5, 6, 0]</t>
+        </is>
+      </c>
+      <c r="C2467" t="n">
+        <v>14.38537152028908</v>
+      </c>
+    </row>
+    <row r="2468">
+      <c r="A2468" s="1" t="n">
+        <v>2466</v>
+      </c>
+      <c r="B2468" t="inlineStr">
+        <is>
+          <t>[6, 4, -2]</t>
+        </is>
+      </c>
+      <c r="C2468" t="n">
+        <v>14.20489214367866</v>
+      </c>
+    </row>
+    <row r="2469">
+      <c r="A2469" s="1" t="n">
+        <v>2467</v>
+      </c>
+      <c r="B2469" t="inlineStr">
+        <is>
+          <t>[7, 6, 0]</t>
+        </is>
+      </c>
+      <c r="C2469" t="n">
+        <v>14.76768720596426</v>
+      </c>
+    </row>
+    <row r="2470">
+      <c r="A2470" s="1" t="n">
+        <v>2468</v>
+      </c>
+      <c r="B2470" t="inlineStr">
+        <is>
+          <t>[4, 7, 1]</t>
+        </is>
+      </c>
+      <c r="C2470" t="n">
+        <v>14.80077722868035</v>
+      </c>
+    </row>
+    <row r="2471">
+      <c r="A2471" s="1" t="n">
+        <v>2469</v>
+      </c>
+      <c r="B2471" t="inlineStr">
+        <is>
+          <t>[5, 4, -2]</t>
+        </is>
+      </c>
+      <c r="C2471" t="n">
+        <v>14.15424887768407</v>
+      </c>
+    </row>
+    <row r="2472">
+      <c r="A2472" s="1" t="n">
+        <v>2470</v>
+      </c>
+      <c r="B2472" t="inlineStr">
+        <is>
+          <t>[6, 5, -2]</t>
+        </is>
+      </c>
+      <c r="C2472" t="n">
+        <v>14.11943469140073</v>
+      </c>
+    </row>
+    <row r="2473">
+      <c r="A2473" s="1" t="n">
+        <v>2471</v>
+      </c>
+      <c r="B2473" t="inlineStr">
+        <is>
+          <t>[6, 4, -3]</t>
+        </is>
+      </c>
+      <c r="C2473" t="n">
+        <v>14.07331007851361</v>
+      </c>
+    </row>
+    <row r="2474">
+      <c r="A2474" s="1" t="n">
+        <v>2472</v>
+      </c>
+      <c r="B2474" t="inlineStr">
+        <is>
+          <t>[5, 4, -3]</t>
+        </is>
+      </c>
+      <c r="C2474" t="n">
+        <v>14.04434061246304</v>
+      </c>
+    </row>
+    <row r="2475">
+      <c r="A2475" s="1" t="n">
+        <v>2473</v>
+      </c>
+      <c r="B2475" t="inlineStr">
+        <is>
+          <t>[7, 5, -1]</t>
+        </is>
+      </c>
+      <c r="C2475" t="n">
+        <v>14.39589684669102</v>
+      </c>
+    </row>
+    <row r="2476">
+      <c r="A2476" s="1" t="n">
+        <v>2474</v>
+      </c>
+      <c r="B2476" t="inlineStr">
+        <is>
+          <t>[6, 6, -1]</t>
+        </is>
+      </c>
+      <c r="C2476" t="n">
+        <v>14.35119955654165</v>
+      </c>
+    </row>
+    <row r="2477">
+      <c r="A2477" s="1" t="n">
+        <v>2475</v>
+      </c>
+      <c r="B2477" t="inlineStr">
+        <is>
+          <t>[6, 7, 0]</t>
+        </is>
+      </c>
+      <c r="C2477" t="n">
+        <v>14.68923399276486</v>
+      </c>
+    </row>
+    <row r="2478">
+      <c r="A2478" s="1" t="n">
+        <v>2476</v>
+      </c>
+      <c r="B2478" t="inlineStr">
+        <is>
+          <t>[7, 7, 0]</t>
+        </is>
+      </c>
+      <c r="C2478" t="n">
+        <v>14.7432692282521</v>
+      </c>
+    </row>
+    <row r="2479">
+      <c r="A2479" s="1" t="n">
+        <v>2477</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>[5, 5, -2]</t>
+        </is>
+      </c>
+      <c r="C2479" t="n">
+        <v>13.98439257442581</v>
+      </c>
+    </row>
+    <row r="2480">
+      <c r="A2480" s="1" t="n">
+        <v>2478</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>[3, 5, -2]</t>
+        </is>
+      </c>
+      <c r="C2480" t="n">
+        <v>14.68965342267671</v>
+      </c>
+    </row>
+    <row r="2481">
+      <c r="A2481" s="1" t="n">
+        <v>2479</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>[7, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2481" t="n">
+        <v>14.32693469239221</v>
+      </c>
+    </row>
+    <row r="2482">
+      <c r="A2482" s="1" t="n">
+        <v>2480</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>[6, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2482" t="n">
+        <v>14.3756275897886</v>
+      </c>
+    </row>
+    <row r="2483">
+      <c r="A2483" s="1" t="n">
+        <v>2481</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>[2, 5, -2]</t>
+        </is>
+      </c>
+      <c r="C2483" t="n">
+        <v>15.57954604223566</v>
+      </c>
+    </row>
+    <row r="2484">
+      <c r="A2484" s="1" t="n">
+        <v>2482</v>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>[7, 6, -1]</t>
+        </is>
+      </c>
+      <c r="C2484" t="n">
+        <v>14.36654541164666</v>
+      </c>
+    </row>
+    <row r="2485">
+      <c r="A2485" s="1" t="n">
+        <v>2483</v>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>[5, 6, -1]</t>
+        </is>
+      </c>
+      <c r="C2485" t="n">
+        <v>14.23581444284661</v>
+      </c>
+    </row>
+    <row r="2486">
+      <c r="A2486" s="1" t="n">
+        <v>2484</v>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>[4, 7, 0]</t>
+        </is>
+      </c>
+      <c r="C2486" t="n">
+        <v>14.5199573574439</v>
+      </c>
+    </row>
+    <row r="2487">
+      <c r="A2487" s="1" t="n">
+        <v>2485</v>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>[7, 4, -2]</t>
+        </is>
+      </c>
+      <c r="C2487" t="n">
+        <v>14.10594468932723</v>
+      </c>
+    </row>
+    <row r="2488">
+      <c r="A2488" s="1" t="n">
+        <v>2486</v>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>[7, 3, -2]</t>
+        </is>
+      </c>
+      <c r="C2488" t="n">
+        <v>14.0815852596502</v>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" s="1" t="n">
+        <v>2487</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>[5, 3, -3]</t>
+        </is>
+      </c>
+      <c r="C2489" t="n">
+        <v>14.03462804168745</v>
+      </c>
+    </row>
+    <row r="2490">
+      <c r="A2490" s="1" t="n">
+        <v>2488</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>[7, 5, -2]</t>
+        </is>
+      </c>
+      <c r="C2490" t="n">
+        <v>14.08245932389961</v>
+      </c>
+    </row>
+    <row r="2491">
+      <c r="A2491" s="1" t="n">
+        <v>2489</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>[7, 5, -3]</t>
+        </is>
+      </c>
+      <c r="C2491" t="n">
+        <v>14.01421953626366</v>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" s="1" t="n">
+        <v>2490</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>[6, 5, -3]</t>
+        </is>
+      </c>
+      <c r="C2492" t="n">
+        <v>14.03451694532049</v>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" s="1" t="n">
+        <v>2491</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>[5, 5, -3]</t>
+        </is>
+      </c>
+      <c r="C2493" t="n">
+        <v>13.95896677327814</v>
+      </c>
+    </row>
+    <row r="2494">
+      <c r="A2494" s="1" t="n">
+        <v>2492</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>[5, 5, -4]</t>
+        </is>
+      </c>
+      <c r="C2494" t="n">
+        <v>13.95659186563975</v>
+      </c>
+    </row>
+    <row r="2495">
+      <c r="A2495" s="1" t="n">
+        <v>2493</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>[5, 4, -4]</t>
+        </is>
+      </c>
+      <c r="C2495" t="n">
+        <v>14.04008497091658</v>
+      </c>
+    </row>
+    <row r="2496">
+      <c r="A2496" s="1" t="n">
+        <v>2494</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>[5, 3, -4]</t>
+        </is>
+      </c>
+      <c r="C2496" t="n">
+        <v>14.0243980917705</v>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" s="1" t="n">
+        <v>2495</v>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>[4, 3, -4]</t>
+        </is>
+      </c>
+      <c r="C2497" t="n">
+        <v>14.05130368384541</v>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" s="1" t="n">
+        <v>2496</v>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>[3, 3, -4]</t>
+        </is>
+      </c>
+      <c r="C2498" t="n">
+        <v>14.22537228693105</v>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" s="1" t="n">
+        <v>2497</v>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>[2, 3, -4]</t>
+        </is>
+      </c>
+      <c r="C2499" t="n">
+        <v>14.68882972260536</v>
+      </c>
+    </row>
+    <row r="2500">
+      <c r="A2500" s="1" t="n">
+        <v>2498</v>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>[2, 4, -4]</t>
+        </is>
+      </c>
+      <c r="C2500" t="n">
+        <v>14.82054234565785</v>
+      </c>
+    </row>
+    <row r="2501">
+      <c r="A2501" s="1" t="n">
+        <v>2499</v>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>[6, 1, -2]</t>
+        </is>
+      </c>
+      <c r="C2501" t="n">
+        <v>14.44603305723586</v>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>[-4, 4, -5]</t>
+        </is>
+      </c>
+      <c r="C2502" t="n">
+        <v>13.98999868374694</v>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" s="1" t="n">
+        <v>2501</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>[-4, 6, -5]</t>
+        </is>
+      </c>
+      <c r="C2503" t="n">
+        <v>13.98895351031804</v>
+      </c>
+    </row>
+    <row r="2504">
+      <c r="A2504" s="1" t="n">
+        <v>2502</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>[-5, 4, -5]</t>
+        </is>
+      </c>
+      <c r="C2504" t="n">
+        <v>13.93264213764498</v>
+      </c>
+    </row>
+    <row r="2505">
+      <c r="A2505" s="1" t="n">
+        <v>2503</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>[3, 6, -1]</t>
+        </is>
+      </c>
+      <c r="C2505" t="n">
+        <v>15.62428880320231</v>
+      </c>
+    </row>
+    <row r="2506">
+      <c r="A2506" s="1" t="n">
+        <v>2504</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>[2, -7, -5]</t>
+        </is>
+      </c>
+      <c r="C2506" t="n">
+        <v>14.69327716844123</v>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" s="1" t="n">
+        <v>2505</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>[2, -7, -6]</t>
+        </is>
+      </c>
+      <c r="C2507" t="n">
+        <v>14.69987728728061</v>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" s="1" t="n">
+        <v>2506</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>[-5, 5, -5]</t>
+        </is>
+      </c>
+      <c r="C2508" t="n">
+        <v>13.93194233417669</v>
+      </c>
+    </row>
+    <row r="2509">
+      <c r="A2509" s="1" t="n">
+        <v>2507</v>
+      </c>
+      <c r="B2509" t="inlineStr">
+        <is>
+          <t>[2, -5, -5]</t>
+        </is>
+      </c>
+      <c r="C2509" t="n">
+        <v>14.67335337783899</v>
+      </c>
+    </row>
+    <row r="2510">
+      <c r="A2510" s="1" t="n">
+        <v>2508</v>
+      </c>
+      <c r="B2510" t="inlineStr">
+        <is>
+          <t>[3, 7, 0]</t>
+        </is>
+      </c>
+      <c r="C2510" t="n">
+        <v>16.74087344998757</v>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" s="1" t="n">
+        <v>2509</v>
+      </c>
+      <c r="B2511" t="inlineStr">
+        <is>
+          <t>[-6, 4, -7]</t>
+        </is>
+      </c>
+      <c r="C2511" t="n">
+        <v>13.95221407888469</v>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" s="1" t="n">
+        <v>2510</v>
+      </c>
+      <c r="B2512" t="inlineStr">
+        <is>
+          <t>[2, -5, -7]</t>
+        </is>
+      </c>
+      <c r="C2512" t="n">
+        <v>14.69327716833771</v>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" s="1" t="n">
+        <v>2511</v>
+      </c>
+      <c r="B2513" t="inlineStr">
+        <is>
+          <t>[-6, 5, -7]</t>
+        </is>
+      </c>
+      <c r="C2513" t="n">
+        <v>13.95091007962321</v>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" s="1" t="n">
+        <v>2512</v>
+      </c>
+      <c r="B2514" t="inlineStr">
+        <is>
+          <t>[-7, 4, -6]</t>
+        </is>
+      </c>
+      <c r="C2514" t="n">
+        <v>13.93850967610216</v>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" s="1" t="n">
+        <v>2513</v>
+      </c>
+      <c r="B2515" t="inlineStr">
+        <is>
+          <t>[-7, 5, -7]</t>
+        </is>
+      </c>
+      <c r="C2515" t="n">
+        <v>13.93268927860981</v>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" s="1" t="n">
+        <v>2514</v>
+      </c>
+      <c r="B2516" t="inlineStr">
+        <is>
+          <t>[-5, 5, -6]</t>
+        </is>
+      </c>
+      <c r="C2516" t="n">
+        <v>13.94121099445818</v>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" s="1" t="n">
+        <v>2515</v>
+      </c>
+      <c r="B2517" t="inlineStr">
+        <is>
+          <t>[-6, 5, -5]</t>
+        </is>
+      </c>
+      <c r="C2517" t="n">
+        <v>13.96169050164819</v>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" s="1" t="n">
+        <v>2516</v>
+      </c>
+      <c r="B2518" t="inlineStr">
+        <is>
+          <t>[-5, 4, -7]</t>
+        </is>
+      </c>
+      <c r="C2518" t="n">
+        <v>13.93332215601517</v>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" s="1" t="n">
+        <v>2517</v>
+      </c>
+      <c r="B2519" t="inlineStr">
+        <is>
+          <t>[-4, 5, -7]</t>
+        </is>
+      </c>
+      <c r="C2519" t="n">
+        <v>13.93458476266256</v>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" s="1" t="n">
+        <v>2518</v>
+      </c>
+      <c r="B2520" t="inlineStr">
+        <is>
+          <t>[-4, 6, -7]</t>
+        </is>
+      </c>
+      <c r="C2520" t="n">
+        <v>13.9351263225436</v>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" s="1" t="n">
+        <v>2519</v>
+      </c>
+      <c r="B2521" t="inlineStr">
+        <is>
+          <t>[-6, 4, -6]</t>
+        </is>
+      </c>
+      <c r="C2521" t="n">
+        <v>13.95270758935961</v>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" s="1" t="n">
+        <v>2520</v>
+      </c>
+      <c r="B2522" t="inlineStr">
+        <is>
+          <t>[-6, 5, -6]</t>
+        </is>
+      </c>
+      <c r="C2522" t="n">
+        <v>13.95220737733338</v>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" s="1" t="n">
+        <v>2521</v>
+      </c>
+      <c r="B2523" t="inlineStr">
+        <is>
+          <t>[-7, 5, -6]</t>
+        </is>
+      </c>
+      <c r="C2523" t="n">
+        <v>13.93725370716411</v>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" s="1" t="n">
+        <v>2522</v>
+      </c>
+      <c r="B2524" t="inlineStr">
+        <is>
+          <t>[-7, 6, -6]</t>
+        </is>
+      </c>
+      <c r="C2524" t="n">
+        <v>13.93878998529089</v>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" s="1" t="n">
+        <v>2523</v>
+      </c>
+      <c r="B2525" t="inlineStr">
+        <is>
+          <t>[-5, 6, -6]</t>
+        </is>
+      </c>
+      <c r="C2525" t="n">
+        <v>13.94298326275332</v>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" s="1" t="n">
+        <v>2524</v>
+      </c>
+      <c r="B2526" t="inlineStr">
+        <is>
+          <t>[-7, 7, -6]</t>
+        </is>
+      </c>
+      <c r="C2526" t="n">
+        <v>13.93873155491244</v>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" s="1" t="n">
+        <v>2525</v>
+      </c>
+      <c r="B2527" t="inlineStr">
+        <is>
+          <t>[5, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C2527" t="n">
+        <v>14.02759029361947</v>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" s="1" t="n">
+        <v>2526</v>
+      </c>
+      <c r="B2528" t="inlineStr">
+        <is>
+          <t>[-3, 3, -6]</t>
+        </is>
+      </c>
+      <c r="C2528" t="n">
+        <v>14.11941863778239</v>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" s="1" t="n">
+        <v>2527</v>
+      </c>
+      <c r="B2529" t="inlineStr">
+        <is>
+          <t>[-3, 4, -6]</t>
+        </is>
+      </c>
+      <c r="C2529" t="n">
+        <v>14.10156538474478</v>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" s="1" t="n">
+        <v>2528</v>
+      </c>
+      <c r="B2530" t="inlineStr">
+        <is>
+          <t>[-3, 4, -7]</t>
+        </is>
+      </c>
+      <c r="C2530" t="n">
+        <v>14.0853464533916</v>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" s="1" t="n">
+        <v>2529</v>
+      </c>
+      <c r="B2531" t="inlineStr">
+        <is>
+          <t>[-3, 5, -7]</t>
+        </is>
+      </c>
+      <c r="C2531" t="n">
+        <v>14.08164197707057</v>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" s="1" t="n">
+        <v>2530</v>
+      </c>
+      <c r="B2532" t="inlineStr">
+        <is>
+          <t>[6, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C2532" t="n">
+        <v>14.06640746007932</v>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" s="1" t="n">
+        <v>2531</v>
+      </c>
+      <c r="B2533" t="inlineStr">
+        <is>
+          <t>[7, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C2533" t="n">
+        <v>14.06975517646791</v>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" s="1" t="n">
+        <v>2532</v>
+      </c>
+      <c r="B2534" t="inlineStr">
+        <is>
+          <t>[7, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2534" t="n">
+        <v>14.05723684912525</v>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" s="1" t="n">
+        <v>2533</v>
+      </c>
+      <c r="B2535" t="inlineStr">
+        <is>
+          <t>[6, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2535" t="n">
+        <v>14.07790118413297</v>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" s="1" t="n">
+        <v>2534</v>
+      </c>
+      <c r="B2536" t="inlineStr">
+        <is>
+          <t>[6, 3, -3]</t>
+        </is>
+      </c>
+      <c r="C2536" t="n">
+        <v>14.03284744429861</v>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" s="1" t="n">
+        <v>2535</v>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>[7, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C2537" t="n">
+        <v>13.99627260750141</v>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" s="1" t="n">
+        <v>2536</v>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>[7, 6, -3]</t>
+        </is>
+      </c>
+      <c r="C2538" t="n">
+        <v>14.00404537867465</v>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" s="1" t="n">
+        <v>2537</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>[6, 6, -3]</t>
+        </is>
+      </c>
+      <c r="C2539" t="n">
+        <v>14.00161598433924</v>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" s="1" t="n">
+        <v>2538</v>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>[6, 2, -3]</t>
+        </is>
+      </c>
+      <c r="C2540" t="n">
+        <v>14.09710607148409</v>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" s="1" t="n">
+        <v>2539</v>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>[3, 4, -3]</t>
+        </is>
+      </c>
+      <c r="C2541" t="n">
+        <v>14.36414315316827</v>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" s="1" t="n">
+        <v>2540</v>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>[7, 4, -3]</t>
+        </is>
+      </c>
+      <c r="C2542" t="n">
+        <v>14.02323980758833</v>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" s="1" t="n">
+        <v>2541</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>[6, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C2543" t="n">
+        <v>14.00999727911581</v>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" s="1" t="n">
+        <v>2542</v>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>[5, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2544" t="n">
+        <v>14.01952878170514</v>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" s="1" t="n">
+        <v>2543</v>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>[4, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2545" t="n">
+        <v>14.03743089441575</v>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" s="1" t="n">
+        <v>2544</v>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>[3, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C2546" t="n">
+        <v>14.49239652782593</v>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" s="1" t="n">
+        <v>2545</v>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>[3, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2547" t="n">
+        <v>15.46640714174872</v>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" s="1" t="n">
+        <v>2546</v>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>[2, 6, -2]</t>
+        </is>
+      </c>
+      <c r="C2548" t="n">
+        <v>15.46022536385763</v>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" s="1" t="n">
+        <v>2547</v>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>[2, 7, 0]</t>
+        </is>
+      </c>
+      <c r="C2549" t="n">
+        <v>20.21582003058511</v>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" s="1" t="n">
+        <v>2548</v>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>[1, 7, 0]</t>
+        </is>
+      </c>
+      <c r="C2550" t="n">
+        <v>23.3869657517164</v>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" s="1" t="n">
+        <v>2549</v>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>[2, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2551" t="n">
+        <v>18.24377602590287</v>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" s="1" t="n">
+        <v>2550</v>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>[0, 6, -1]</t>
+        </is>
+      </c>
+      <c r="C2552" t="n">
+        <v>18.20096342418969</v>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" s="1" t="n">
+        <v>2551</v>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>[0, 5, -1]</t>
+        </is>
+      </c>
+      <c r="C2553" t="n">
+        <v>18.23065097872167</v>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" s="1" t="n">
+        <v>2552</v>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>[0, 6, 0]</t>
+        </is>
+      </c>
+      <c r="C2554" t="n">
+        <v>23.83084672900219</v>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" s="1" t="n">
+        <v>2553</v>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>[0, 7, 1]</t>
+        </is>
+      </c>
+      <c r="C2555" t="n">
+        <v>20.73129462837198</v>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" s="1" t="n">
+        <v>2554</v>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>[1, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2556" t="n">
+        <v>19.28149817141674</v>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" s="1" t="n">
+        <v>2555</v>
+      </c>
+      <c r="B2557" t="inlineStr">
+        <is>
+          <t>[1, 7, 2]</t>
+        </is>
+      </c>
+      <c r="C2557" t="n">
+        <v>15.95481975740401</v>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" s="1" t="n">
+        <v>2556</v>
+      </c>
+      <c r="B2558" t="inlineStr">
+        <is>
+          <t>[1, 5, -2]</t>
+        </is>
+      </c>
+      <c r="C2558" t="n">
+        <v>16.19360636084931</v>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" s="1" t="n">
+        <v>2557</v>
+      </c>
+      <c r="B2559" t="inlineStr">
+        <is>
+          <t>[3, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2559" t="n">
+        <v>14.43950852784472</v>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" s="1" t="n">
+        <v>2558</v>
+      </c>
+      <c r="B2560" t="inlineStr">
+        <is>
+          <t>[2, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2560" t="n">
+        <v>15.47987207488504</v>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" s="1" t="n">
+        <v>2559</v>
+      </c>
+      <c r="B2561" t="inlineStr">
+        <is>
+          <t>[1, 7, -2]</t>
+        </is>
+      </c>
+      <c r="C2561" t="n">
+        <v>16.20788697827895</v>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" s="1" t="n">
+        <v>2560</v>
+      </c>
+      <c r="B2562" t="inlineStr">
+        <is>
+          <t>[0, 5, -2]</t>
+        </is>
+      </c>
+      <c r="C2562" t="n">
+        <v>15.8610003222083</v>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" s="1" t="n">
+        <v>2561</v>
+      </c>
+      <c r="B2563" t="inlineStr">
+        <is>
+          <t>[2, 6, -3]</t>
+        </is>
+      </c>
+      <c r="C2563" t="n">
+        <v>14.68058402325318</v>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" s="1" t="n">
+        <v>2562</v>
+      </c>
+      <c r="B2564" t="inlineStr">
+        <is>
+          <t>[2, 5, -3]</t>
+        </is>
+      </c>
+      <c r="C2564" t="n">
+        <v>14.75374583112079</v>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" s="1" t="n">
+        <v>2563</v>
+      </c>
+      <c r="B2565" t="inlineStr">
+        <is>
+          <t>[2, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C2565" t="n">
+        <v>14.69790549295389</v>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" s="1" t="n">
+        <v>2564</v>
+      </c>
+      <c r="B2566" t="inlineStr">
+        <is>
+          <t>[0, 5, -3]</t>
+        </is>
+      </c>
+      <c r="C2566" t="n">
+        <v>15.31473682436256</v>
+      </c>
+    </row>
+    <row r="2567">
+      <c r="A2567" s="1" t="n">
+        <v>2565</v>
+      </c>
+      <c r="B2567" t="inlineStr">
+        <is>
+          <t>[3, 6, -3]</t>
+        </is>
+      </c>
+      <c r="C2567" t="n">
+        <v>14.23435105659905</v>
+      </c>
+    </row>
+    <row r="2568">
+      <c r="A2568" s="1" t="n">
+        <v>2566</v>
+      </c>
+      <c r="B2568" t="inlineStr">
+        <is>
+          <t>[3, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C2568" t="n">
+        <v>14.21189433696884</v>
+      </c>
+    </row>
+    <row r="2569">
+      <c r="A2569" s="1" t="n">
+        <v>2567</v>
+      </c>
+      <c r="B2569" t="inlineStr">
+        <is>
+          <t>[3, 5, -3]</t>
+        </is>
+      </c>
+      <c r="C2569" t="n">
+        <v>14.33962475015909</v>
+      </c>
+    </row>
+    <row r="2570">
+      <c r="A2570" s="1" t="n">
+        <v>2568</v>
+      </c>
+      <c r="B2570" t="inlineStr">
+        <is>
+          <t>[4, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C2570" t="n">
+        <v>13.99555079164669</v>
+      </c>
+    </row>
+    <row r="2571">
+      <c r="A2571" s="1" t="n">
+        <v>2569</v>
+      </c>
+      <c r="B2571" t="inlineStr">
+        <is>
+          <t>[0, 6, -3]</t>
+        </is>
+      </c>
+      <c r="C2571" t="n">
+        <v>15.31989681092863</v>
+      </c>
+    </row>
+    <row r="2572">
+      <c r="A2572" s="1" t="n">
+        <v>2570</v>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>[5, 7, -3]</t>
+        </is>
+      </c>
+      <c r="C2572" t="n">
+        <v>13.97954276351531</v>
+      </c>
+    </row>
+    <row r="2573">
+      <c r="A2573" s="1" t="n">
+        <v>2571</v>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>[4, 6, -3]</t>
+        </is>
+      </c>
+      <c r="C2573" t="n">
+        <v>14.0316452677349</v>
+      </c>
+    </row>
+    <row r="2574">
+      <c r="A2574" s="1" t="n">
+        <v>2572</v>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>[5, 6, -3]</t>
+        </is>
+      </c>
+      <c r="C2574" t="n">
+        <v>13.9850955318626</v>
+      </c>
+    </row>
+    <row r="2575">
+      <c r="A2575" s="1" t="n">
+        <v>2573</v>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>[5, 7, -4]</t>
+        </is>
+      </c>
+      <c r="C2575" t="n">
+        <v>13.97770610731386</v>
+      </c>
+    </row>
+    <row r="2576">
+      <c r="A2576" s="1" t="n">
+        <v>2574</v>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>[4, 7, -4]</t>
+        </is>
+      </c>
+      <c r="C2576" t="n">
+        <v>13.99552501704019</v>
+      </c>
+    </row>
+    <row r="2577">
+      <c r="A2577" s="1" t="n">
+        <v>2575</v>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>[3, 7, -4]</t>
+        </is>
+      </c>
+      <c r="C2577" t="n">
+        <v>14.21757911833676</v>
+      </c>
+    </row>
+    <row r="2578">
+      <c r="A2578" s="1" t="n">
+        <v>2576</v>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>[2, 7, -4]</t>
+        </is>
+      </c>
+      <c r="C2578" t="n">
+        <v>14.69712175315747</v>
+      </c>
+    </row>
+    <row r="2579">
+      <c r="A2579" s="1" t="n">
+        <v>2577</v>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>[2, 6, -4]</t>
+        </is>
+      </c>
+      <c r="C2579" t="n">
+        <v>14.67877272014601</v>
+      </c>
+    </row>
+    <row r="2580">
+      <c r="A2580" s="1" t="n">
+        <v>2578</v>
+      </c>
+      <c r="B2580" t="inlineStr">
+        <is>
+          <t>[2, 5, -4]</t>
+        </is>
+      </c>
+      <c r="C2580" t="n">
+        <v>14.75285484802332</v>
+      </c>
+    </row>
+    <row r="2581">
+      <c r="A2581" s="1" t="n">
+        <v>2579</v>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>[3, 6, -4]</t>
+        </is>
+      </c>
+      <c r="C2581" t="n">
+        <v>14.24142405704909</v>
+      </c>
+    </row>
+    <row r="2582">
+      <c r="A2582" s="1" t="n">
+        <v>2580</v>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>[3, 5, -4]</t>
+        </is>
+      </c>
+      <c r="C2582" t="n">
+        <v>14.34796612568328</v>
+      </c>
+    </row>
+    <row r="2583">
+      <c r="A2583" s="1" t="n">
+        <v>2581</v>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>[6, 7, -4]</t>
+        </is>
+      </c>
+      <c r="C2583" t="n">
+        <v>14.00956022013391</v>
+      </c>
+    </row>
+    <row r="2584">
+      <c r="A2584" s="1" t="n">
+        <v>2582</v>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>[4, 6, -4]</t>
+        </is>
+      </c>
+      <c r="C2584" t="n">
+        <v>14.03290562572614</v>
+      </c>
+    </row>
+    <row r="2585">
+      <c r="A2585" s="1" t="n">
+        <v>2583</v>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>[5, 6, -4]</t>
+        </is>
+      </c>
+      <c r="C2585" t="n">
+        <v>13.98377355490329</v>
+      </c>
+    </row>
+    <row r="2586">
+      <c r="A2586" s="1" t="n">
+        <v>2584</v>
+      </c>
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t>[3, 4, -4]</t>
+        </is>
+      </c>
+      <c r="C2586" t="n">
+        <v>14.35701388589617</v>
+      </c>
+    </row>
+    <row r="2587">
+      <c r="A2587" s="1" t="n">
+        <v>2585</v>
+      </c>
+      <c r="B2587" t="inlineStr">
+        <is>
+          <t>[0, 3, -4]</t>
+        </is>
+      </c>
+      <c r="C2587" t="n">
+        <v>15.50812865137413</v>
+      </c>
+    </row>
+    <row r="2588">
+      <c r="A2588" s="1" t="n">
+        <v>2586</v>
+      </c>
+      <c r="B2588" t="inlineStr">
+        <is>
+          <t>[6, 6, -4]</t>
+        </is>
+      </c>
+      <c r="C2588" t="n">
+        <v>14.00169299106555</v>
+      </c>
+    </row>
+    <row r="2589">
+      <c r="A2589" s="1" t="n">
+        <v>2587</v>
+      </c>
+      <c r="B2589" t="inlineStr">
+        <is>
+          <t>[4, 5, -4]</t>
+        </is>
+      </c>
+      <c r="C2589" t="n">
+        <v>14.06888314902043</v>
+      </c>
+    </row>
+    <row r="2590">
+      <c r="A2590" s="1" t="n">
+        <v>2588</v>
+      </c>
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>[4, 7, -5]</t>
+        </is>
+      </c>
+      <c r="C2590" t="n">
+        <v>13.99549897017303</v>
+      </c>
+    </row>
+    <row r="2591">
+      <c r="A2591" s="1" t="n">
+        <v>2589</v>
+      </c>
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t>[4, 6, -5]</t>
+        </is>
+      </c>
+      <c r="C2591" t="n">
+        <v>14.03231227329587</v>
+      </c>
+    </row>
+    <row r="2592">
+      <c r="A2592" s="1" t="n">
+        <v>2590</v>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>[3, 6, -5]</t>
+        </is>
+      </c>
+      <c r="C2592" t="n">
+        <v>14.24083501689822</v>
+      </c>
+    </row>
+    <row r="2593">
+      <c r="A2593" s="1" t="n">
+        <v>2591</v>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>[3, 5, -5]</t>
+        </is>
+      </c>
+      <c r="C2593" t="n">
+        <v>14.34404106051907</v>
+      </c>
+    </row>
+    <row r="2594">
+      <c r="A2594" s="1" t="n">
+        <v>2592</v>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>[3, 4, -5]</t>
+        </is>
+      </c>
+      <c r="C2594" t="n">
+        <v>14.35779898100862</v>
+      </c>
+    </row>
+    <row r="2595">
+      <c r="A2595" s="1" t="n">
+        <v>2593</v>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>[2, 4, -5]</t>
+        </is>
+      </c>
+      <c r="C2595" t="n">
+        <v>14.81914789518167</v>
+      </c>
+    </row>
+    <row r="2596">
+      <c r="A2596" s="1" t="n">
+        <v>2594</v>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>[2, 3, -5]</t>
+        </is>
+      </c>
+      <c r="C2596" t="n">
+        <v>14.68550078583116</v>
+      </c>
+    </row>
+    <row r="2597">
+      <c r="A2597" s="1" t="n">
+        <v>2595</v>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>[1, 3, -5]</t>
+        </is>
+      </c>
+      <c r="C2597" t="n">
+        <v>15.19238167934249</v>
+      </c>
+    </row>
+    <row r="2598">
+      <c r="A2598" s="1" t="n">
+        <v>2596</v>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>[4, 4, -4]</t>
+        </is>
+      </c>
+      <c r="C2598" t="n">
+        <v>13.98533827437085</v>
+      </c>
+    </row>
+    <row r="2599">
+      <c r="A2599" s="1" t="n">
+        <v>2597</v>
+      </c>
+      <c r="B2599" t="inlineStr">
+        <is>
+          <t>[0, 7, 0]</t>
+        </is>
+      </c>
+      <c r="C2599" t="n">
+        <v>23.85466297063637</v>
+      </c>
+    </row>
+    <row r="2600">
+      <c r="A2600" s="1" t="n">
+        <v>2598</v>
+      </c>
+      <c r="B2600" t="inlineStr">
+        <is>
+          <t>[0, 7, 2]</t>
+        </is>
+      </c>
+      <c r="C2600" t="n">
+        <v>16.87027510925285</v>
+      </c>
+    </row>
+    <row r="2601">
+      <c r="A2601" s="1" t="n">
+        <v>2599</v>
+      </c>
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>[-1, 7, 2]</t>
+        </is>
+      </c>
+      <c r="C2601" t="n">
+        <v>17.09714371104906</v>
+      </c>
+    </row>
+    <row r="2602">
+      <c r="A2602" s="1" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>[-1, 7, 1]</t>
+        </is>
+      </c>
+      <c r="C2602" t="n">
+        <v>20.97413807417866</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiments/pg/return_discount_increment/mlp_3x182_no_max_prefix_no_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
+++ b/experiments/pg/return_discount_increment/mlp_3x182_no_max_prefix_no_time_no_clip_grad_step_3e_4_norm_time/oracle_buffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2602"/>
+  <dimension ref="A1:C2603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34258,6 +34258,19 @@
         <v>20.97413807417866</v>
       </c>
     </row>
+    <row r="2603">
+      <c r="A2603" s="1" t="n">
+        <v>2601</v>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>[0, 7, -1]</t>
+        </is>
+      </c>
+      <c r="C2603" t="n">
+        <v>18.23852348610175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
